--- a/summary.xlsx
+++ b/summary.xlsx
@@ -938,11 +938,11 @@
         <v>33</v>
       </c>
       <c r="N6" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/closed/MLCommons/results/gh_ubuntu_x86-nvidia-gpu-TensorRT-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/closed/MLCommons/results/gh_ubuntu_x86-nvidia-gpu-TensorRT-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="O6" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/closed/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/closed/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="P6" s="1">
@@ -1146,11 +1146,11 @@
         <v>55</v>
       </c>
       <c r="P6" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/3b07702db56d-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/3b07702db56d-reference-gpu-pytorch_v2.4.1-scc24-base","details")</f>
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="T6" s="1">
@@ -1198,11 +1198,11 @@
         <v>56</v>
       </c>
       <c r="P7" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-cpu-pytorch-v2.5.1-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-cpu-pytorch-v2.5.1-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="U7" s="1">
@@ -1250,11 +1250,11 @@
         <v>57</v>
       </c>
       <c r="P8" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-cpu-pytorch-v2.5.1-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-cpu-pytorch-v2.5.1-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="V8" s="1">
@@ -1308,11 +1308,11 @@
         <v>58</v>
       </c>
       <c r="P9" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu_x86-nvidia-gpu-TensorRT-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu_x86-nvidia-gpu-TensorRT-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="R9" s="1">
@@ -1518,11 +1518,11 @@
         <v>134</v>
       </c>
       <c r="P6" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch-v2.5.0-cu124","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch-v2.5.0-cu124","details")</f>
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="U6" s="1">
@@ -1574,11 +1574,11 @@
         <v>135</v>
       </c>
       <c r="P7" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch-v2.5.1-cu124","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch-v2.5.1-cu124","details")</f>
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="U7" s="1">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch-v2.5.1-cu124","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch-v2.5.1-cu124","details")</f>
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="V8" s="1">
@@ -1686,11 +1686,11 @@
         <v>134</v>
       </c>
       <c r="P9" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-cu124","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-cu124","details")</f>
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="U9" s="1">
@@ -1744,11 +1744,11 @@
         <v>55</v>
       </c>
       <c r="P10" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-cu124","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-cu124","details")</f>
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="V10" s="1">
@@ -1802,11 +1802,11 @@
         <v>134</v>
       </c>
       <c r="P11" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="U11" s="1">
@@ -1860,11 +1860,11 @@
         <v>134</v>
       </c>
       <c r="P12" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.5.0-cu124","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.5.0-cu124","details")</f>
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="U12" s="1">
@@ -1914,11 +1914,11 @@
         <v>136</v>
       </c>
       <c r="P13" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-mlcommons_cpp-cpu-onnxruntime-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-mlcommons_cpp-cpu-onnxruntime-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="R13" s="1">
@@ -1968,11 +1968,11 @@
         <v>137</v>
       </c>
       <c r="P14" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-deepsparse_v1.8.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-deepsparse_v1.8.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="T14" s="1">
@@ -2022,11 +2022,11 @@
         <v>136</v>
       </c>
       <c r="P15" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="R15" s="1">
@@ -2076,11 +2076,11 @@
         <v>138</v>
       </c>
       <c r="P16" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="S16" s="1">
@@ -2130,11 +2130,11 @@
         <v>138</v>
       </c>
       <c r="P17" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="S17" s="1">
@@ -2184,11 +2184,11 @@
         <v>138</v>
       </c>
       <c r="P18" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="S18" s="1">
@@ -2238,11 +2238,11 @@
         <v>136</v>
       </c>
       <c r="P19" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-mlcommons_cpp-cpu-onnxruntime-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-mlcommons_cpp-cpu-onnxruntime-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="R19" s="1">
@@ -2292,11 +2292,11 @@
         <v>138</v>
       </c>
       <c r="P20" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-mlcommons_cpp-cpu-onnxruntime-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-mlcommons_cpp-cpu-onnxruntime-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="S20" s="1">
@@ -2346,11 +2346,11 @@
         <v>137</v>
       </c>
       <c r="P21" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-deepsparse_v1.8.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-deepsparse_v1.8.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="T21" s="1">
@@ -2400,11 +2400,11 @@
         <v>136</v>
       </c>
       <c r="P22" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="R22" s="1">
@@ -2454,11 +2454,11 @@
         <v>138</v>
       </c>
       <c r="P23" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q23" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="S23" s="1">
@@ -2508,11 +2508,11 @@
         <v>138</v>
       </c>
       <c r="P24" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="S24" s="1">
@@ -2562,11 +2562,11 @@
         <v>138</v>
       </c>
       <c r="P25" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="S25" s="1">
@@ -2616,11 +2616,11 @@
         <v>136</v>
       </c>
       <c r="P26" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-tf_v2.17.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-tf_v2.17.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q26" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="R26" s="1">
@@ -2670,11 +2670,11 @@
         <v>138</v>
       </c>
       <c r="P27" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q27" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="S27" s="1">
@@ -2724,11 +2724,11 @@
         <v>138</v>
       </c>
       <c r="P28" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="S28" s="1">
@@ -2778,11 +2778,11 @@
         <v>138</v>
       </c>
       <c r="P29" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q29" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="S29" s="1">
@@ -2832,11 +2832,11 @@
         <v>136</v>
       </c>
       <c r="P30" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q30" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="R30" s="1">
@@ -2886,11 +2886,11 @@
         <v>136</v>
       </c>
       <c r="P31" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-tf_v2.17.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-tf_v2.17.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q31" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="R31" s="1">
@@ -2940,11 +2940,11 @@
         <v>136</v>
       </c>
       <c r="P32" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q32" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="R32" s="1">
@@ -2994,11 +2994,11 @@
         <v>136</v>
       </c>
       <c r="P33" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-reference-cpu-tf_v2.17.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-reference-cpu-tf_v2.17.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q33" s="2">
-        <f>HYPERLINK("https://github.com/mlcommons/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
       <c r="R33" s="1">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="146">
   <si>
     <t>Model</t>
   </si>
@@ -288,6 +288,15 @@
     <t>5.0-0033</t>
   </si>
   <si>
+    <t>5.0-0034</t>
+  </si>
+  <si>
+    <t>5.0-0035</t>
+  </si>
+  <si>
+    <t>5.0-0036</t>
+  </si>
+  <si>
     <t>edge/open/MLCommons/gh_action-reference-gpu-pytorch-v2.5.0-cu124/gptj-99</t>
   </si>
   <si>
@@ -321,6 +330,9 @@
     <t>edge/open/MLCommons/gh_macos-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config/retinanet</t>
   </si>
   <si>
+    <t>edge/open/MLCommons/gh_macos-latest_x86-reference-cpu-onnxruntime_v1.20.1-default_config/resnet50</t>
+  </si>
+  <si>
     <t>edge/open/MLCommons/gh_macos-latest_x86-reference-cpu-pytorch_v2.4.1-default_config/retinanet</t>
   </si>
   <si>
@@ -342,6 +354,9 @@
     <t>edge/open/MLCommons/gh_ubuntu-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config/retinanet</t>
   </si>
   <si>
+    <t>edge/open/MLCommons/gh_ubuntu-latest_x86-reference-cpu-onnxruntime_v1.20.1-default_config/resnet50</t>
+  </si>
+  <si>
     <t>edge/open/MLCommons/gh_ubuntu-latest_x86-reference-cpu-pytorch_v2.4.1-default_config/retinanet</t>
   </si>
   <si>
@@ -363,6 +378,9 @@
     <t>edge/open/MLCommons/gh_windows-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config/resnet50</t>
   </si>
   <si>
+    <t>edge/open/MLCommons/gh_windows-latest_x86-reference-cpu-onnxruntime_v1.20.1-default_config/resnet50</t>
+  </si>
+  <si>
     <t>edge/open/MLCommons/gh_windows-latest_x86-reference-cpu-tf_v2.17.0-default_config/resnet50</t>
   </si>
   <si>
@@ -403,6 +421,9 @@
   </si>
   <si>
     <t>onnxruntime v1.19.2</t>
+  </si>
+  <si>
+    <t>onnxruntime v1.20.1</t>
   </si>
   <si>
     <t>tf v2.17.0</t>
@@ -1338,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW33"/>
+  <dimension ref="A1:CW36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1476,7 +1497,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -1506,16 +1527,16 @@
         <v>2</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="P6" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch-v2.5.0-cu124","details")</f>
@@ -1534,7 +1555,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -1571,7 +1592,7 @@
         <v>61</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="P7" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch-v2.5.1-cu124","details")</f>
@@ -1590,7 +1611,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -1644,7 +1665,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -1683,7 +1704,7 @@
         <v>61</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="P9" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-cu124","details")</f>
@@ -1702,7 +1723,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -1760,7 +1781,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -1793,13 +1814,13 @@
         <v>50</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="P11" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-default_config","details")</f>
@@ -1818,7 +1839,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -1848,16 +1869,16 @@
         <v>2</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="P12" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.5.0-cu124","details")</f>
@@ -1876,7 +1897,7 @@
         <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -1888,13 +1909,13 @@
         <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -1902,16 +1923,14 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="P13" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-mlcommons_cpp-cpu-onnxruntime-default_config","details")</f>
@@ -1922,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>9.376760000000001</v>
+        <v>9.792389999999999</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1930,7 +1949,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -1942,13 +1961,13 @@
         <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -1956,16 +1975,16 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>60</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="P14" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-deepsparse_v1.8.0-default_config","details")</f>
@@ -1984,7 +2003,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>26</v>
@@ -1996,13 +2015,13 @@
         <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -2010,16 +2029,16 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="P15" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
@@ -2038,7 +2057,7 @@
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
@@ -2050,13 +2069,13 @@
         <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -2064,16 +2083,16 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P16" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
@@ -2092,7 +2111,7 @@
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
@@ -2104,13 +2123,13 @@
         <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -2118,27 +2137,25 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P17" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q17" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="S17" s="1">
-        <v>0.350957</v>
+      <c r="R17" s="1">
+        <v>16.3094</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2146,7 +2163,7 @@
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>26</v>
@@ -2158,13 +2175,13 @@
         <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -2172,19 +2189,19 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P18" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q18" s="2">
@@ -2192,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>0.277839</v>
+        <v>0.350957</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2200,7 +2217,7 @@
         <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>26</v>
@@ -2212,13 +2229,13 @@
         <v>28</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -2226,27 +2243,27 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="P19" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-mlcommons_cpp-cpu-onnxruntime-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q19" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="R19" s="1">
-        <v>23.2405</v>
+      <c r="S19" s="1">
+        <v>0.277839</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2254,7 +2271,7 @@
         <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>26</v>
@@ -2266,13 +2283,13 @@
         <v>28</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -2280,16 +2297,16 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P20" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-mlcommons_cpp-cpu-onnxruntime-default_config","details")</f>
@@ -2299,8 +2316,8 @@
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="S20" s="1">
-        <v>0.430537</v>
+      <c r="R20" s="1">
+        <v>23.2405</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2308,7 +2325,7 @@
         <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>26</v>
@@ -2320,13 +2337,13 @@
         <v>28</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -2334,27 +2351,27 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="P21" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-deepsparse_v1.8.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-mlcommons_cpp-cpu-onnxruntime-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q21" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="T21" s="1">
-        <v>6.37052</v>
+      <c r="S21" s="1">
+        <v>0.430537</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2362,7 +2379,7 @@
         <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>26</v>
@@ -2374,13 +2391,13 @@
         <v>28</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -2388,27 +2405,27 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="P22" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-deepsparse_v1.8.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q22" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="R22" s="1">
-        <v>23.227</v>
+      <c r="T22" s="1">
+        <v>6.37052</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2416,7 +2433,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2428,13 +2445,13 @@
         <v>28</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
@@ -2442,16 +2459,16 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P23" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
@@ -2461,8 +2478,8 @@
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="S23" s="1">
-        <v>0.433265</v>
+      <c r="R23" s="1">
+        <v>23.227</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2470,7 +2487,7 @@
         <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>26</v>
@@ -2482,13 +2499,13 @@
         <v>28</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
@@ -2496,19 +2513,19 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P24" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q24" s="2">
@@ -2516,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="1">
-        <v>0.409818</v>
+        <v>0.433265</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2524,7 +2541,7 @@
         <v>81</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>26</v>
@@ -2536,13 +2553,13 @@
         <v>28</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
@@ -2550,27 +2567,25 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P25" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q25" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="S25" s="1">
-        <v>0.412839</v>
+      <c r="R25" s="1">
+        <v>23.3029</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2578,7 +2593,7 @@
         <v>82</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>26</v>
@@ -2590,13 +2605,13 @@
         <v>28</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
@@ -2604,27 +2619,27 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="P26" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-tf_v2.17.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q26" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="R26" s="1">
-        <v>21.0188</v>
+      <c r="S26" s="1">
+        <v>0.409818</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2632,7 +2647,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>26</v>
@@ -2644,13 +2659,13 @@
         <v>28</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
@@ -2658,19 +2673,19 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P27" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q27" s="2">
@@ -2678,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="1">
-        <v>0.349311</v>
+        <v>0.412839</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2686,7 +2701,7 @@
         <v>84</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>26</v>
@@ -2698,13 +2713,13 @@
         <v>28</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
@@ -2712,27 +2727,27 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P28" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-tf_v2.17.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q28" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="S28" s="1">
-        <v>0.327316</v>
+      <c r="R28" s="1">
+        <v>21.0188</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2740,7 +2755,7 @@
         <v>85</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>26</v>
@@ -2752,13 +2767,13 @@
         <v>28</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
@@ -2766,19 +2781,19 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P29" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q29" s="2">
@@ -2786,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>0.329647</v>
+        <v>0.349311</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2794,7 +2809,7 @@
         <v>86</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>26</v>
@@ -2806,13 +2821,13 @@
         <v>28</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
@@ -2820,27 +2835,27 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="P30" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q30" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="R30" s="1">
-        <v>17.596</v>
+      <c r="S30" s="1">
+        <v>0.327316</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2848,7 +2863,7 @@
         <v>87</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>26</v>
@@ -2860,13 +2875,13 @@
         <v>28</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
@@ -2874,27 +2889,27 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="P31" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-tf_v2.17.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q31" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="R31" s="1">
-        <v>21.7501</v>
+      <c r="S31" s="1">
+        <v>0.329647</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2902,7 +2917,7 @@
         <v>88</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>26</v>
@@ -2914,13 +2929,13 @@
         <v>28</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
@@ -2928,19 +2943,19 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="P32" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q32" s="2">
@@ -2948,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>17.8036</v>
+        <v>17.596</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2956,7 +2971,7 @@
         <v>89</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>26</v>
@@ -2968,13 +2983,13 @@
         <v>28</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
@@ -2982,26 +2997,186 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P33" s="2">
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>17.3275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P33" s="2">
+      <c r="M34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P34" s="2">
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-tf_v2.17.0-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>21.7501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P35" s="2">
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>17.8036</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P36" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-reference-cpu-tf_v2.17.0-default_config","details")</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="1">
+      <c r="Q36" s="2">
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
         <v>21.8155</v>
       </c>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="149">
   <si>
     <t>Model</t>
   </si>
@@ -297,6 +297,9 @@
     <t>5.0-0036</t>
   </si>
   <si>
+    <t>5.0-0037</t>
+  </si>
+  <si>
     <t>edge/open/MLCommons/gh_action-reference-gpu-pytorch-v2.5.0-cu124/gptj-99</t>
   </si>
   <si>
@@ -384,6 +387,9 @@
     <t>edge/open/MLCommons/gh_windows-latest_x86-reference-cpu-tf_v2.17.0-default_config/resnet50</t>
   </si>
   <si>
+    <t>edge/open/MLCommons/gh_windows-latest_x86-reference-cpu-tf_v2.18.0-default_config/resnet50</t>
+  </si>
+  <si>
     <t>edge/open/MLCommons/gh_windows-reference-cpu-onnxruntime_v1.19.2-default_config/resnet50</t>
   </si>
   <si>
@@ -427,6 +433,9 @@
   </si>
   <si>
     <t>tf v2.17.0</t>
+  </si>
+  <si>
+    <t>tf v2.18.0</t>
   </si>
   <si>
     <t xml:space="preserve">Automated by MLCommons CM v3.2.6. </t>
@@ -1359,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW36"/>
+  <dimension ref="A1:CW37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1497,7 +1506,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -1527,16 +1536,16 @@
         <v>2</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P6" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch-v2.5.0-cu124","details")</f>
@@ -1555,7 +1564,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -1592,7 +1601,7 @@
         <v>61</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P7" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch-v2.5.1-cu124","details")</f>
@@ -1611,7 +1620,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -1665,7 +1674,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -1704,7 +1713,7 @@
         <v>61</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P9" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-cu124","details")</f>
@@ -1723,7 +1732,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -1781,7 +1790,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -1814,13 +1823,13 @@
         <v>50</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P11" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-default_config","details")</f>
@@ -1839,7 +1848,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -1869,16 +1878,16 @@
         <v>2</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P12" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.5.0-cu124","details")</f>
@@ -1897,7 +1906,7 @@
         <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -1909,13 +1918,13 @@
         <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -1923,14 +1932,14 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P13" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-mlcommons_cpp-cpu-onnxruntime-default_config","details")</f>
@@ -1949,7 +1958,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -1961,13 +1970,13 @@
         <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -1975,16 +1984,16 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>60</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P14" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-deepsparse_v1.8.0-default_config","details")</f>
@@ -2003,7 +2012,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>26</v>
@@ -2015,13 +2024,13 @@
         <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -2029,16 +2038,16 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P15" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
@@ -2057,7 +2066,7 @@
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
@@ -2069,13 +2078,13 @@
         <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -2083,16 +2092,16 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P16" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
@@ -2111,7 +2120,7 @@
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
@@ -2123,13 +2132,13 @@
         <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -2137,14 +2146,14 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P17" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
@@ -2163,7 +2172,7 @@
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>26</v>
@@ -2175,13 +2184,13 @@
         <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -2192,13 +2201,13 @@
         <v>50</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P18" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
@@ -2217,7 +2226,7 @@
         <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>26</v>
@@ -2229,13 +2238,13 @@
         <v>28</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -2243,16 +2252,16 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P19" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
@@ -2271,7 +2280,7 @@
         <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>26</v>
@@ -2283,13 +2292,13 @@
         <v>28</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -2297,16 +2306,16 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P20" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-mlcommons_cpp-cpu-onnxruntime-default_config","details")</f>
@@ -2325,7 +2334,7 @@
         <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>26</v>
@@ -2337,13 +2346,13 @@
         <v>28</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -2351,16 +2360,16 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P21" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-mlcommons_cpp-cpu-onnxruntime-default_config","details")</f>
@@ -2379,7 +2388,7 @@
         <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>26</v>
@@ -2391,13 +2400,13 @@
         <v>28</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -2405,16 +2414,16 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>60</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P22" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-deepsparse_v1.8.0-default_config","details")</f>
@@ -2433,7 +2442,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2445,13 +2454,13 @@
         <v>28</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
@@ -2459,16 +2468,16 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P23" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
@@ -2487,7 +2496,7 @@
         <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>26</v>
@@ -2499,13 +2508,13 @@
         <v>28</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
@@ -2513,16 +2522,16 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P24" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
@@ -2541,7 +2550,7 @@
         <v>81</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>26</v>
@@ -2553,13 +2562,13 @@
         <v>28</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
@@ -2567,14 +2576,14 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P25" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
@@ -2593,7 +2602,7 @@
         <v>82</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>26</v>
@@ -2605,13 +2614,13 @@
         <v>28</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
@@ -2622,13 +2631,13 @@
         <v>50</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P26" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
@@ -2647,7 +2656,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>26</v>
@@ -2659,13 +2668,13 @@
         <v>28</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
@@ -2673,16 +2682,16 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P27" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
@@ -2701,7 +2710,7 @@
         <v>84</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>26</v>
@@ -2713,13 +2722,13 @@
         <v>28</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
@@ -2727,16 +2736,16 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P28" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-tf_v2.17.0-default_config","details")</f>
@@ -2755,7 +2764,7 @@
         <v>85</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>26</v>
@@ -2767,13 +2776,13 @@
         <v>28</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
@@ -2781,16 +2790,16 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P29" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
@@ -2809,7 +2818,7 @@
         <v>86</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>26</v>
@@ -2821,13 +2830,13 @@
         <v>28</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
@@ -2838,13 +2847,13 @@
         <v>50</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P30" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
@@ -2863,7 +2872,7 @@
         <v>87</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>26</v>
@@ -2875,13 +2884,13 @@
         <v>28</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
@@ -2889,16 +2898,16 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P31" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
@@ -2917,7 +2926,7 @@
         <v>88</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>26</v>
@@ -2929,13 +2938,13 @@
         <v>28</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
@@ -2943,7 +2952,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>53</v>
@@ -2952,7 +2961,7 @@
         <v>54</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P32" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
@@ -2971,7 +2980,7 @@
         <v>89</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>26</v>
@@ -2983,13 +2992,13 @@
         <v>28</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
@@ -2997,14 +3006,14 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P33" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
@@ -3023,7 +3032,7 @@
         <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>26</v>
@@ -3035,13 +3044,13 @@
         <v>28</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
@@ -3049,16 +3058,16 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P34" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-tf_v2.17.0-default_config","details")</f>
@@ -3077,7 +3086,7 @@
         <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>26</v>
@@ -3089,13 +3098,13 @@
         <v>28</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
@@ -3103,19 +3112,17 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P35" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-tf_v2.18.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q35" s="2">
@@ -3123,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>17.8036</v>
+        <v>21.3501</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3131,7 +3138,7 @@
         <v>92</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>26</v>
@@ -3143,13 +3150,13 @@
         <v>28</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
@@ -3160,23 +3167,77 @@
         <v>136</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P36" s="2">
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>17.8036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P36" s="2">
+      <c r="N37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P37" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-reference-cpu-tf_v2.17.0-default_config","details")</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="1">
+      <c r="Q37" s="2">
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
         <v>21.8155</v>
       </c>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="151">
   <si>
     <t>Model</t>
   </si>
@@ -300,6 +300,9 @@
     <t>5.0-0037</t>
   </si>
   <si>
+    <t>5.0-0038</t>
+  </si>
+  <si>
     <t>edge/open/MLCommons/gh_action-reference-gpu-pytorch-v2.5.0-cu124/gptj-99</t>
   </si>
   <si>
@@ -367,6 +370,9 @@
   </si>
   <si>
     <t>edge/open/MLCommons/gh_ubuntu-latest_x86-reference-cpu-tf_v2.17.0-default_config/resnet50</t>
+  </si>
+  <si>
+    <t>edge/open/MLCommons/gh_ubuntu-latest_x86-reference-cpu-tf_v2.18.0-default_config/resnet50</t>
   </si>
   <si>
     <t>edge/open/MLCommons/gh_windows-latest-reference-cpu-onnxruntime_v1.19.2-default_config/retinanet</t>
@@ -1368,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CW37"/>
+  <dimension ref="A1:CW38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1506,7 +1512,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -1536,16 +1542,16 @@
         <v>2</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P6" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch-v2.5.0-cu124","details")</f>
@@ -1564,7 +1570,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -1601,7 +1607,7 @@
         <v>61</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P7" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch-v2.5.1-cu124","details")</f>
@@ -1620,7 +1626,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -1674,7 +1680,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -1713,7 +1719,7 @@
         <v>61</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P9" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-cu124","details")</f>
@@ -1732,7 +1738,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -1790,7 +1796,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -1823,13 +1829,13 @@
         <v>50</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P11" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.4.1-default_config","details")</f>
@@ -1848,7 +1854,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -1878,16 +1884,16 @@
         <v>2</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P12" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_action-reference-gpu-pytorch_v2.5.0-cu124","details")</f>
@@ -1906,7 +1912,7 @@
         <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -1918,13 +1924,13 @@
         <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -1932,14 +1938,14 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P13" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-mlcommons_cpp-cpu-onnxruntime-default_config","details")</f>
@@ -1958,7 +1964,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -1970,13 +1976,13 @@
         <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -1984,16 +1990,16 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>60</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P14" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-deepsparse_v1.8.0-default_config","details")</f>
@@ -2012,7 +2018,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>26</v>
@@ -2024,13 +2030,13 @@
         <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -2038,16 +2044,16 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P15" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
@@ -2066,7 +2072,7 @@
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
@@ -2078,13 +2084,13 @@
         <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -2092,16 +2098,16 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P16" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
@@ -2120,7 +2126,7 @@
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
@@ -2132,13 +2138,13 @@
         <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -2146,14 +2152,14 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P17" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
@@ -2172,7 +2178,7 @@
         <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>26</v>
@@ -2184,13 +2190,13 @@
         <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -2201,13 +2207,13 @@
         <v>50</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P18" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
@@ -2226,7 +2232,7 @@
         <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>26</v>
@@ -2238,13 +2244,13 @@
         <v>28</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -2252,16 +2258,16 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P19" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_macos-latest_x86-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
@@ -2280,7 +2286,7 @@
         <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>26</v>
@@ -2292,13 +2298,13 @@
         <v>28</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -2306,16 +2312,16 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P20" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-mlcommons_cpp-cpu-onnxruntime-default_config","details")</f>
@@ -2334,7 +2340,7 @@
         <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>26</v>
@@ -2346,13 +2352,13 @@
         <v>28</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -2360,16 +2366,16 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P21" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-mlcommons_cpp-cpu-onnxruntime-default_config","details")</f>
@@ -2388,7 +2394,7 @@
         <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>26</v>
@@ -2400,13 +2406,13 @@
         <v>28</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -2414,16 +2420,16 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>60</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P22" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-deepsparse_v1.8.0-default_config","details")</f>
@@ -2442,7 +2448,7 @@
         <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -2454,13 +2460,13 @@
         <v>28</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
@@ -2468,16 +2474,16 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P23" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
@@ -2496,7 +2502,7 @@
         <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>26</v>
@@ -2508,13 +2514,13 @@
         <v>28</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
@@ -2522,16 +2528,16 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P24" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
@@ -2550,7 +2556,7 @@
         <v>81</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>26</v>
@@ -2562,13 +2568,13 @@
         <v>28</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
@@ -2576,14 +2582,14 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P25" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
@@ -2602,7 +2608,7 @@
         <v>82</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>26</v>
@@ -2614,13 +2620,13 @@
         <v>28</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
@@ -2631,13 +2637,13 @@
         <v>50</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P26" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
@@ -2656,7 +2662,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>26</v>
@@ -2668,13 +2674,13 @@
         <v>28</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
@@ -2682,16 +2688,16 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P27" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
@@ -2710,7 +2716,7 @@
         <v>84</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>26</v>
@@ -2722,13 +2728,13 @@
         <v>28</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
@@ -2736,16 +2742,16 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P28" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-tf_v2.17.0-default_config","details")</f>
@@ -2764,7 +2770,7 @@
         <v>85</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>26</v>
@@ -2776,13 +2782,13 @@
         <v>28</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
@@ -2790,27 +2796,25 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>148</v>
       </c>
       <c r="P29" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_ubuntu-latest_x86-reference-cpu-tf_v2.18.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q29" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="S29" s="1">
-        <v>0.349311</v>
+      <c r="R29" s="1">
+        <v>21.033</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2818,7 +2822,7 @@
         <v>86</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>26</v>
@@ -2830,13 +2834,13 @@
         <v>28</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
@@ -2844,7 +2848,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>142</v>
@@ -2853,10 +2857,10 @@
         <v>59</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P30" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q30" s="2">
@@ -2864,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>0.327316</v>
+        <v>0.349311</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2872,7 +2876,7 @@
         <v>87</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>26</v>
@@ -2884,13 +2888,13 @@
         <v>28</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
@@ -2898,19 +2902,19 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P31" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-pytorch_v2.4.1-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q31" s="2">
@@ -2918,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="1">
-        <v>0.329647</v>
+        <v>0.327316</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2926,7 +2930,7 @@
         <v>88</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>26</v>
@@ -2938,13 +2942,13 @@
         <v>28</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
@@ -2952,27 +2956,27 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P32" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest-reference-cpu-pytorch_v2.5.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q32" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
         <v>0</v>
       </c>
-      <c r="R32" s="1">
-        <v>17.596</v>
+      <c r="S32" s="1">
+        <v>0.329647</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2980,7 +2984,7 @@
         <v>89</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>26</v>
@@ -2992,13 +2996,13 @@
         <v>28</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
@@ -3006,17 +3010,19 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="N33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P33" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q33" s="2">
@@ -3024,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="1">
-        <v>17.3275</v>
+        <v>17.596</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3032,7 +3038,7 @@
         <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>26</v>
@@ -3044,13 +3050,13 @@
         <v>28</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
@@ -3058,19 +3064,17 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P34" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-tf_v2.17.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-onnxruntime_v1.20.1-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q34" s="2">
@@ -3078,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="1">
-        <v>21.7501</v>
+        <v>17.3275</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3086,7 +3090,7 @@
         <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>26</v>
@@ -3098,13 +3102,13 @@
         <v>28</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
@@ -3112,17 +3116,19 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="N35" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P35" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-tf_v2.18.0-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-tf_v2.17.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q35" s="2">
@@ -3130,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>21.3501</v>
+        <v>21.7501</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3138,7 +3144,7 @@
         <v>92</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>26</v>
@@ -3150,13 +3156,13 @@
         <v>28</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
@@ -3164,19 +3170,17 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P36" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-latest_x86-reference-cpu-tf_v2.18.0-default_config","details")</f>
         <v>0</v>
       </c>
       <c r="Q36" s="2">
@@ -3184,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="1">
-        <v>17.8036</v>
+        <v>21.3501</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3192,7 +3196,7 @@
         <v>93</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>26</v>
@@ -3204,13 +3208,13 @@
         <v>28</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
@@ -3221,23 +3225,77 @@
         <v>138</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P37" s="2">
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-reference-cpu-onnxruntime_v1.19.2-default_config","details")</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>17.8036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P38" s="2">
         <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/results/gh_windows-reference-cpu-tf_v2.17.0-default_config","details")</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="2">
-        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="1">
+      <c r="Q38" s="2">
+        <f>HYPERLINK("https://github.com/GATEOverflow/mlperf_inference_test_submissions_v5.0/tree/auto-update/open/MLCommons/code","code")</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
         <v>21.8155</v>
       </c>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="151">
   <si>
     <t>Model</t>
   </si>
@@ -2314,9 +2314,7 @@
       <c r="L20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
         <v>54</v>
       </c>
@@ -2332,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>23.2405</v>
+        <v>22.996</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2368,9 +2366,7 @@
       <c r="L21" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
         <v>59</v>
       </c>
